--- a/biology/Médecine/Notre_poison_quotidien/Notre_poison_quotidien.xlsx
+++ b/biology/Médecine/Notre_poison_quotidien/Notre_poison_quotidien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Notre poison quotidien est un film documentaire et un livre réalisés en 2010 par la journaliste française Marie-Monique Robin. Le téléfilm a été coproduit par Arte France et l'Institut national de l'audiovisuel.
 Le film a été diffusé en première mondiale au FIPA de Biarritz en janvier 2011, et sur Arte le 15 mars 2011.
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film et le livre abordent la question de la mise en circulation des molécules créées par l’homme lors des dernières décennies. Il met en relation certains problèmes de santé contemporains (recrudescence du cancer, maladie d’Alzheimer etc) avec la présence de ces nouvelles molécules dans notre corps. L’auteur étudie tout particulièrement le système d’évaluation environnementale et d’homologation qui autorise la présence dans les aliments de produits comme les pesticides, l’aspartame et le Bisphénol A. Marie-Monique Robin affirme que « Les débats d’experts, sur les produits utilisables et les doses admissibles, sont totalement fermés au public. Sans parler des cas où ils s’appuient sur des tests bidonnés par les industriels, les modèles scientifiques qu’ils appliquent sont dépassés. En effet, ils continuent à évaluer les produits chimiques séparément, ignorant l’« effet cocktail », alors même que l’on sait qu’un quart de nos aliments contiennent les résidus d’au moins deux pesticides. Et leurs avis partent du postulat de Paracelse, formulé au XVIe siècle, selon lequel « c’est la dose qui fait le poison » »[1]. À sa sortie, le film a fait la une de cinq hebdomadaires français[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film et le livre abordent la question de la mise en circulation des molécules créées par l’homme lors des dernières décennies. Il met en relation certains problèmes de santé contemporains (recrudescence du cancer, maladie d’Alzheimer etc) avec la présence de ces nouvelles molécules dans notre corps. L’auteur étudie tout particulièrement le système d’évaluation environnementale et d’homologation qui autorise la présence dans les aliments de produits comme les pesticides, l’aspartame et le Bisphénol A. Marie-Monique Robin affirme que « Les débats d’experts, sur les produits utilisables et les doses admissibles, sont totalement fermés au public. Sans parler des cas où ils s’appuient sur des tests bidonnés par les industriels, les modèles scientifiques qu’ils appliquent sont dépassés. En effet, ils continuent à évaluer les produits chimiques séparément, ignorant l’« effet cocktail », alors même que l’on sait qu’un quart de nos aliments contiennent les résidus d’au moins deux pesticides. Et leurs avis partent du postulat de Paracelse, formulé au XVIe siècle, selon lequel « c’est la dose qui fait le poison » ». À sa sortie, le film a fait la une de cinq hebdomadaires français.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Thématiques abordées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maladies développées dans le monde agricole par exposition aux herbicides, fongicides et pesticides (« phyto-sanitaires ») en application de la révolution verte ;
 Homologation de l'E951 (aspartame), et impact des travaux de John Olney ;
